--- a/Dokumentumok/Projektütemezés.xlsx
+++ b/Dokumentumok/Projektütemezés.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A55998-303D-4EE8-9F2B-76EBA815AC8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647D36BF-B841-4BFC-8C4A-B96AA6A1F4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -157,9 +157,6 @@
     </r>
   </si>
   <si>
-    <t>Projekt specifikáció elkésszítése</t>
-  </si>
-  <si>
     <t>13_S1_1_vizsgaremek</t>
   </si>
   <si>
@@ -203,6 +200,9 @@
   </si>
   <si>
     <t>Rendelés működésének beállítása</t>
+  </si>
+  <si>
+    <t>Projektspecifikáció elkésszítése</t>
   </si>
 </sst>
 </file>
@@ -1155,7 +1155,7 @@
   <dimension ref="B1:BO30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1172,7 +1172,7 @@
   <sheetData>
     <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B1" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
@@ -1189,7 +1189,7 @@
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
       <c r="G2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" s="8">
         <v>1</v>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="5" spans="2:67" ht="34.5" x14ac:dyDescent="0.25">
       <c r="B5" s="22" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C5" s="27">
         <v>1</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="27">
         <v>5</v>
@@ -1448,18 +1448,18 @@
         <v>1</v>
       </c>
       <c r="E6" s="27">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F6" s="27">
         <v>2</v>
       </c>
       <c r="G6" s="21">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="7" spans="2:67" ht="34.5" x14ac:dyDescent="0.25">
       <c r="B7" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="27">
         <v>6</v>
@@ -1473,7 +1473,7 @@
     </row>
     <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="27">
         <v>10</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="9" spans="2:67" ht="34.5" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="28">
         <v>13</v>
@@ -1501,7 +1501,7 @@
     </row>
     <row r="10" spans="2:67" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B10" s="22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="27">
         <v>14</v>
@@ -1509,13 +1509,17 @@
       <c r="D10" s="27">
         <v>1</v>
       </c>
-      <c r="E10" s="27"/>
+      <c r="E10" s="27">
+        <v>6</v>
+      </c>
       <c r="F10" s="27"/>
-      <c r="G10" s="21"/>
+      <c r="G10" s="21">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="11" spans="2:67" ht="51.75" x14ac:dyDescent="0.25">
       <c r="B11" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="27">
         <v>15</v>
@@ -1529,7 +1533,7 @@
     </row>
     <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="27">
         <v>18</v>
@@ -1543,7 +1547,7 @@
     </row>
     <row r="13" spans="2:67" ht="34.5" x14ac:dyDescent="0.25">
       <c r="B13" s="31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="27">
         <v>20</v>
@@ -1557,7 +1561,7 @@
     </row>
     <row r="14" spans="2:67" ht="51.75" x14ac:dyDescent="0.25">
       <c r="B14" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="27">
         <v>25</v>
@@ -1571,7 +1575,7 @@
     </row>
     <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="30">
         <v>27</v>
@@ -1585,7 +1589,7 @@
     </row>
     <row r="16" spans="2:67" ht="34.5" x14ac:dyDescent="0.25">
       <c r="B16" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="27">
         <v>29</v>
@@ -1599,7 +1603,7 @@
     </row>
     <row r="17" spans="2:41" ht="51.75" x14ac:dyDescent="0.25">
       <c r="B17" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="27">
         <v>33</v>
@@ -1614,7 +1618,7 @@
     </row>
     <row r="18" spans="2:41" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="38">
         <v>35</v>
